--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H2">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J2">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N2">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P2">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q2">
-        <v>0.8515958315222223</v>
+        <v>0.2593590223611111</v>
       </c>
       <c r="R2">
-        <v>7.664362483700001</v>
+        <v>2.33423120125</v>
       </c>
       <c r="S2">
-        <v>0.05530405586049703</v>
+        <v>0.03948700657240784</v>
       </c>
       <c r="T2">
-        <v>0.05530405586049703</v>
+        <v>0.03948700657240785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H3">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I3">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J3">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.418253</v>
       </c>
       <c r="O3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P3">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q3">
-        <v>0.5774215957228889</v>
+        <v>0.7026894845642222</v>
       </c>
       <c r="R3">
-        <v>5.196794361506</v>
+        <v>6.324205361078</v>
       </c>
       <c r="S3">
-        <v>0.03749872298909047</v>
+        <v>0.1069833778780845</v>
       </c>
       <c r="T3">
-        <v>0.03749872298909048</v>
+        <v>0.1069833778780845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.141667333333333</v>
+        <v>5.040175333333333</v>
       </c>
       <c r="H4">
-        <v>12.425002</v>
+        <v>15.120526</v>
       </c>
       <c r="I4">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="J4">
-        <v>0.1426766640830233</v>
+        <v>0.1638830352839606</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N4">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P4">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q4">
-        <v>0.7679797097295555</v>
+        <v>0.1143699786055555</v>
       </c>
       <c r="R4">
-        <v>6.911817387566</v>
+        <v>1.02932980745</v>
       </c>
       <c r="S4">
-        <v>0.04987388523343578</v>
+        <v>0.01741265083346827</v>
       </c>
       <c r="T4">
-        <v>0.04987388523343579</v>
+        <v>0.01741265083346827</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>18.144572</v>
       </c>
       <c r="I5">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J5">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N5">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P5">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q5">
-        <v>1.243608804244444</v>
+        <v>0.3112298113888889</v>
       </c>
       <c r="R5">
-        <v>11.1924792382</v>
+        <v>2.8010683025</v>
       </c>
       <c r="S5">
-        <v>0.08076203315321882</v>
+        <v>0.04738425328705677</v>
       </c>
       <c r="T5">
-        <v>0.08076203315321882</v>
+        <v>0.04738425328705678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>18.144572</v>
       </c>
       <c r="I6">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J6">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.418253</v>
       </c>
       <c r="O6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P6">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q6">
         <v>0.8432246303017777</v>
@@ -827,10 +827,10 @@
         <v>7.589021672716</v>
       </c>
       <c r="S6">
-        <v>0.05476041606943865</v>
+        <v>0.1283796345915553</v>
       </c>
       <c r="T6">
-        <v>0.05476041606943865</v>
+        <v>0.1283796345915554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>18.144572</v>
       </c>
       <c r="I7">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="J7">
-        <v>0.2083546549267541</v>
+        <v>0.1966590007046292</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N7">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P7">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q7">
-        <v>1.121501882875111</v>
+        <v>0.1372435265444444</v>
       </c>
       <c r="R7">
-        <v>10.093516945876</v>
+        <v>1.2351917389</v>
       </c>
       <c r="S7">
-        <v>0.07283220570409665</v>
+        <v>0.0208951128260171</v>
       </c>
       <c r="T7">
-        <v>0.07283220570409665</v>
+        <v>0.0208951128260171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H8">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I8">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J8">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N8">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O8">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P8">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q8">
-        <v>0.7478594130944444</v>
+        <v>0.2281338140972222</v>
       </c>
       <c r="R8">
-        <v>6.73073471785</v>
+        <v>2.053204326875</v>
       </c>
       <c r="S8">
-        <v>0.04856723955969059</v>
+        <v>0.03473301732338814</v>
       </c>
       <c r="T8">
-        <v>0.04856723955969059</v>
+        <v>0.03473301732338814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H9">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I9">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J9">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.418253</v>
       </c>
       <c r="O9">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P9">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q9">
-        <v>0.5070834775147777</v>
+        <v>0.6180900543974445</v>
       </c>
       <c r="R9">
-        <v>4.563751297633</v>
+        <v>5.562810489576999</v>
       </c>
       <c r="S9">
-        <v>0.03293084809525698</v>
+        <v>0.09410324660443115</v>
       </c>
       <c r="T9">
-        <v>0.03293084809525698</v>
+        <v>0.09410324660443115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.637153666666666</v>
+        <v>4.433369666666667</v>
       </c>
       <c r="H10">
-        <v>10.911461</v>
+        <v>13.300109</v>
       </c>
       <c r="I10">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="J10">
-        <v>0.125296628181791</v>
+        <v>0.1441525402309101</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N10">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O10">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P10">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q10">
-        <v>0.674428917718111</v>
+        <v>0.1006005466861111</v>
       </c>
       <c r="R10">
-        <v>6.069860259462999</v>
+        <v>0.9054049201749998</v>
       </c>
       <c r="S10">
-        <v>0.04379854052684341</v>
+        <v>0.01531627630309083</v>
       </c>
       <c r="T10">
-        <v>0.04379854052684341</v>
+        <v>0.01531627630309083</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H11">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I11">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J11">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N11">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O11">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P11">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q11">
-        <v>1.180515535694445</v>
+        <v>0.1856217521527778</v>
       </c>
       <c r="R11">
-        <v>10.62463982125</v>
+        <v>1.670595769375</v>
       </c>
       <c r="S11">
-        <v>0.07666465089845437</v>
+        <v>0.0282606222082121</v>
       </c>
       <c r="T11">
-        <v>0.07666465089845437</v>
+        <v>0.0282606222082121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H12">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I12">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J12">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.418253</v>
       </c>
       <c r="O12">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P12">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q12">
-        <v>0.8004444587027778</v>
+        <v>0.5029107996965555</v>
       </c>
       <c r="R12">
-        <v>7.204000128325</v>
+        <v>4.526197197268999</v>
       </c>
       <c r="S12">
-        <v>0.05198220026299949</v>
+        <v>0.0765673847478629</v>
       </c>
       <c r="T12">
-        <v>0.05198220026299949</v>
+        <v>0.0765673847478629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.741341666666667</v>
+        <v>3.607224333333333</v>
       </c>
       <c r="H13">
-        <v>17.224025</v>
+        <v>10.821673</v>
       </c>
       <c r="I13">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="J13">
-        <v>0.1977839866007744</v>
+        <v>0.1172901404415748</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N13">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O13">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P13">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q13">
-        <v>1.064603588786111</v>
+        <v>0.08185393216388888</v>
       </c>
       <c r="R13">
-        <v>9.581432299075001</v>
+        <v>0.7366853894749998</v>
       </c>
       <c r="S13">
-        <v>0.06913713543932055</v>
+        <v>0.01246213348549985</v>
       </c>
       <c r="T13">
-        <v>0.06913713543932055</v>
+        <v>0.01246213348549985</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H14">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I14">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J14">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N14">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O14">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P14">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q14">
-        <v>1.129637884772222</v>
+        <v>0.3588259738194445</v>
       </c>
       <c r="R14">
-        <v>10.16674096295</v>
+        <v>3.229433764375</v>
       </c>
       <c r="S14">
-        <v>0.07336057125820541</v>
+        <v>0.05463069477039938</v>
       </c>
       <c r="T14">
-        <v>0.07336057125820541</v>
+        <v>0.05463069477039938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H15">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I15">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J15">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.418253</v>
       </c>
       <c r="O15">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P15">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q15">
-        <v>0.7659470442078889</v>
+        <v>0.9721783969418889</v>
       </c>
       <c r="R15">
-        <v>6.893523397871</v>
+        <v>8.749605572477</v>
       </c>
       <c r="S15">
-        <v>0.04974188053896116</v>
+        <v>0.1480126444035877</v>
       </c>
       <c r="T15">
-        <v>0.04974188053896116</v>
+        <v>0.1480126444035877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.493902333333334</v>
+        <v>6.973136333333334</v>
       </c>
       <c r="H16">
-        <v>16.481707</v>
+        <v>20.919409</v>
       </c>
       <c r="I16">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="J16">
-        <v>0.1892599271335179</v>
+        <v>0.2267339273294199</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N16">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O16">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P16">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q16">
-        <v>1.018721490564556</v>
+        <v>0.1582320852972222</v>
       </c>
       <c r="R16">
-        <v>9.168493415081</v>
+        <v>1.424088767675</v>
       </c>
       <c r="S16">
-        <v>0.06615747533635127</v>
+        <v>0.0240905881554328</v>
       </c>
       <c r="T16">
-        <v>0.06615747533635127</v>
+        <v>0.02409058815543279</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H17">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I17">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J17">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2056166666666667</v>
+        <v>0.05145833333333334</v>
       </c>
       <c r="N17">
-        <v>0.61685</v>
+        <v>0.154375</v>
       </c>
       <c r="O17">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="P17">
-        <v>0.3876180888860402</v>
+        <v>0.2409462730781657</v>
       </c>
       <c r="Q17">
-        <v>0.8154939313444444</v>
+        <v>0.2394157792361111</v>
       </c>
       <c r="R17">
-        <v>7.3394453821</v>
+        <v>2.154742013125</v>
       </c>
       <c r="S17">
-        <v>0.05295953815597394</v>
+        <v>0.03645067891670149</v>
       </c>
       <c r="T17">
-        <v>0.05295953815597394</v>
+        <v>0.0364506789167015</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H18">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I18">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J18">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.418253</v>
       </c>
       <c r="O18">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="P18">
-        <v>0.2628230988584793</v>
+        <v>0.6528032489312521</v>
       </c>
       <c r="Q18">
-        <v>0.5529428276997778</v>
+        <v>0.6486566342532222</v>
       </c>
       <c r="R18">
-        <v>4.976485449298</v>
+        <v>5.837909708279</v>
       </c>
       <c r="S18">
-        <v>0.03590903090273254</v>
+        <v>0.09875696070573052</v>
       </c>
       <c r="T18">
-        <v>0.03590903090273254</v>
+        <v>0.09875696070573053</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.966088666666666</v>
+        <v>4.652614333333333</v>
       </c>
       <c r="H19">
-        <v>11.898266</v>
+        <v>13.957843</v>
       </c>
       <c r="I19">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="J19">
-        <v>0.1366281390741391</v>
+        <v>0.1512813560095054</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1854276666666667</v>
+        <v>0.02269166666666667</v>
       </c>
       <c r="N19">
-        <v>0.556283</v>
+        <v>0.068075</v>
       </c>
       <c r="O19">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="P19">
-        <v>0.3495588122554804</v>
+        <v>0.1062504779905822</v>
       </c>
       <c r="Q19">
-        <v>0.7354225672531111</v>
+        <v>0.1055755735805555</v>
       </c>
       <c r="R19">
-        <v>6.618803105277999</v>
+        <v>0.950180162225</v>
       </c>
       <c r="S19">
-        <v>0.04775957001543268</v>
+        <v>0.01607371638707339</v>
       </c>
       <c r="T19">
-        <v>0.04775957001543268</v>
+        <v>0.01607371638707339</v>
       </c>
     </row>
   </sheetData>
